--- a/exampleFiles/TimeKex_createData.xlsx
+++ b/exampleFiles/TimeKex_createData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git\reactdev\kimai-excel-import\public\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF24AA5-4CCC-4B44-8FD1-8CE671AC16F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85861B8-0CC3-4DBF-AC5B-A02974CAEA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1765BF24-13D1-4792-ADB5-4E37D4C61FFF}"/>
+    <workbookView xWindow="3900" yWindow="495" windowWidth="21480" windowHeight="14790" xr2:uid="{1765BF24-13D1-4792-ADB5-4E37D4C61FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>customer</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>TimeKex doing</t>
-  </si>
-  <si>
-    <t>General (TimeKex)</t>
-  </si>
-  <si>
-    <t>TimeKex - task 1</t>
   </si>
   <si>
     <t>Used for example</t>
@@ -146,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E55EDC6D-718D-4BC1-89C7-BF4280431B50}" name="Tabelle3" displayName="Tabelle3" ref="A1:G7" totalsRowShown="0">
-  <autoFilter ref="A1:G7" xr:uid="{E55EDC6D-718D-4BC1-89C7-BF4280431B50}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E55EDC6D-718D-4BC1-89C7-BF4280431B50}" name="Tabelle3" displayName="Tabelle3" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6" xr:uid="{E55EDC6D-718D-4BC1-89C7-BF4280431B50}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{8DF7E23D-D9C9-4900-8F92-63927DFBBF02}" name="customer"/>
     <tableColumn id="3" xr3:uid="{C0BEE4B1-F496-4AD9-9988-5BB52688EEF8}" name="project"/>
@@ -458,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE11C98-3110-45DA-8475-EB074630E995}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,20 +574,12 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/exampleFiles/TimeKex_createData.xlsx
+++ b/exampleFiles/TimeKex_createData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git\reactdev\kimai-excel-import\public\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git\TimeKex\exampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85861B8-0CC3-4DBF-AC5B-A02974CAEA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A5AF06-BB56-42CE-8EB5-21AA60798989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="495" windowWidth="21480" windowHeight="14790" xr2:uid="{1765BF24-13D1-4792-ADB5-4E37D4C61FFF}"/>
+    <workbookView xWindow="765" yWindow="1200" windowWidth="23535" windowHeight="8085" xr2:uid="{1765BF24-13D1-4792-ADB5-4E37D4C61FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>customer</t>
   </si>
@@ -84,13 +84,55 @@
     <t>Used for example</t>
   </si>
   <si>
-    <t>TimeKex - general Task</t>
+    <t>project_start</t>
+  </si>
+  <si>
+    <t>project_end</t>
+  </si>
+  <si>
+    <t>activitiy_rate</t>
+  </si>
+  <si>
+    <t>abrechenbar</t>
+  </si>
+  <si>
+    <t>project_comment</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>project_budget</t>
+  </si>
+  <si>
+    <t>activitiy_budget</t>
+  </si>
+  <si>
+    <t>Project 2 (TimeKex)</t>
+  </si>
+  <si>
+    <t>TimeKex Junior</t>
+  </si>
+  <si>
+    <t>TimeKex Senior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,8 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -140,9 +185,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E55EDC6D-718D-4BC1-89C7-BF4280431B50}" name="Tabelle3" displayName="Tabelle3" ref="A1:G6" totalsRowShown="0">
-  <autoFilter ref="A1:G6" xr:uid="{E55EDC6D-718D-4BC1-89C7-BF4280431B50}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E55EDC6D-718D-4BC1-89C7-BF4280431B50}" name="Tabelle3" displayName="Tabelle3" ref="A1:O8" totalsRowShown="0">
+  <autoFilter ref="A1:O8" xr:uid="{E55EDC6D-718D-4BC1-89C7-BF4280431B50}"/>
+  <tableColumns count="15">
     <tableColumn id="2" xr3:uid="{8DF7E23D-D9C9-4900-8F92-63927DFBBF02}" name="customer"/>
     <tableColumn id="3" xr3:uid="{C0BEE4B1-F496-4AD9-9988-5BB52688EEF8}" name="project"/>
     <tableColumn id="4" xr3:uid="{89660FEC-70BE-40A3-BBE7-C3B18C7D960A}" name="activity"/>
@@ -150,6 +195,14 @@
     <tableColumn id="6" xr3:uid="{25AB3137-C0F8-4F87-92EB-32D26A284BF3}" name="customer_currency"/>
     <tableColumn id="7" xr3:uid="{5F48E270-C471-432C-B5CD-E0067C89B8C0}" name="customer_timezone"/>
     <tableColumn id="8" xr3:uid="{0265CF00-97D1-4588-AF20-A7BB338B8777}" name="customer_comment"/>
+    <tableColumn id="1" xr3:uid="{DC9BED34-D41D-4445-9D77-6A60179CA9A9}" name="project_start"/>
+    <tableColumn id="9" xr3:uid="{E2C9C066-3B8E-4DC8-9CCC-39C00C5D9BC5}" name="project_end"/>
+    <tableColumn id="10" xr3:uid="{5F60AF5C-65C9-4741-900A-4329CD13D2BE}" name="activitiy_rate"/>
+    <tableColumn id="11" xr3:uid="{48657822-2FC9-4FEC-B8C1-A051A561F1ED}" name="abrechenbar"/>
+    <tableColumn id="13" xr3:uid="{AE57775F-9A17-4D88-853A-FB768C87AB1A}" name="project_comment"/>
+    <tableColumn id="14" xr3:uid="{780780B9-6EA9-4AC9-969E-BCFA26C20A75}" name="visible"/>
+    <tableColumn id="15" xr3:uid="{50C3042D-0A19-4DE5-B430-C26D640D02F1}" name="project_budget"/>
+    <tableColumn id="16" xr3:uid="{691514B2-D658-452D-977D-392B3AA388E1}" name="activitiy_budget"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -452,23 +505,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE11C98-3110-45DA-8475-EB074630E995}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,36 +545,87 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44562</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44562</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -530,16 +636,31 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="1">
+        <v>44562</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44562</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -550,11 +671,14 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -562,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -576,10 +700,110 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
